--- a/Data/DataReport_20181220.xlsx
+++ b/Data/DataReport_20181220.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462128ac3aee2bbc/School work/Columbia/Thesis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aireyfamily-my.sharepoint.com/personal/montana_airey_us/Documents/GitHub/verbose-tribble/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C6182DD-E113-41D1-A0E6-5156FC54D278}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C6182DD-E113-41D1-A0E6-5156FC54D278}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="19320" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1081,34 +1081,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="9" customWidth="1"/>
     <col min="4" max="4" width="37" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="9"/>
+    <col min="5" max="5" width="15.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>18</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>19</v>
       </c>
@@ -1220,21 +1220,21 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="19"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="19"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>10</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>30</v>
       </c>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="D19" s="39"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>31</v>
       </c>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="D20" s="39"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>32</v>
       </c>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="D21" s="39"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>33</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D22" s="39"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>34</v>
       </c>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="D23" s="39"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>35</v>
       </c>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="D24" s="39"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>36</v>
       </c>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="D25" s="39"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>37</v>
       </c>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="D26" s="39"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
         <v>38</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>39</v>
       </c>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D28" s="39"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>40</v>
       </c>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="D29" s="39"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>41</v>
       </c>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D30" s="39"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>42</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D31" s="39"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>43</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="D32" s="39"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>44</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>-0.13100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>45</v>
       </c>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="D34" s="39"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
         <v>46</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="D35" s="39"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
         <v>47</v>
       </c>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="D36" s="39"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
         <v>48</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="D37" s="42"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
         <v>49</v>
       </c>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="D38" s="43"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>50</v>
       </c>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="D39" s="42"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
         <v>47</v>
       </c>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="D40" s="39"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
         <v>46</v>
       </c>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D41" s="42"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
         <v>51</v>
       </c>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="D42" s="42"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
         <v>52</v>
       </c>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="D43" s="42"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>53</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
         <v>54</v>
       </c>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D45" s="45"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
         <v>55</v>
       </c>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D46" s="44"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
         <v>56</v>
       </c>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="D47" s="39"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
         <v>39</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D48" s="39"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
         <v>57</v>
       </c>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="D49" s="39"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
         <v>58</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>-0.189</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
         <v>59</v>
       </c>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D51" s="39"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>60</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>61</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
         <v>62</v>
       </c>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D54" s="39"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
         <v>63</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D55" s="39"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
         <v>64</v>
       </c>
@@ -1700,19 +1700,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
       <c r="D57" s="39"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
       <c r="D58" s="39"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>24</v>
       </c>
@@ -1722,7 +1722,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="10"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>22</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="C60" s="28"/>
       <c r="D60" s="10"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
         <v>27</v>
       </c>
@@ -1744,24 +1744,24 @@
       </c>
       <c r="D61" s="31"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="19"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>6</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>8</v>
       </c>
@@ -1777,14 +1777,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
     </row>
-    <row r="75" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1792,7 +1792,7 @@
       <c r="E75" s="1"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1800,7 +1800,7 @@
       <c r="E76" s="1"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1808,7 +1808,7 @@
       <c r="E77" s="1"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1816,14 +1816,14 @@
       <c r="E78" s="1"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="4"/>
       <c r="E79" s="1"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1831,7 +1831,7 @@
       <c r="E80" s="1"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:13" s="5" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1841,7 +1841,7 @@
       <c r="J81" s="1"/>
       <c r="M81" s="6"/>
     </row>
-    <row r="82" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1849,7 +1849,7 @@
       <c r="E82" s="1"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1857,7 +1857,7 @@
       <c r="E83" s="1"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1866,7 +1866,7 @@
       <c r="F84" s="2"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1875,57 +1875,57 @@
       <c r="F85" s="12"/>
       <c r="H85" s="14"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="34"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="34"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="35"/>
       <c r="C98" s="35"/>
     </row>
@@ -1946,7 +1946,7 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1963,7 +1963,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
